--- a/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,14 @@
   </si>
   <si>
     <t>returndna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,205 +705,211 @@
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
       </c>
       <c r="F3" t="s">
         <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
         <v>58</v>
@@ -952,10 +966,10 @@
         <v>58</v>
       </c>
       <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
         <v>57</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>56</v>
@@ -963,20 +977,23 @@
       <c r="AC3" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AD3" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
@@ -984,40 +1001,40 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
       </c>
       <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <v>50</v>
-      </c>
-      <c r="J6" s="1">
-        <v>100</v>
       </c>
       <c r="K6" s="1">
         <v>100</v>
       </c>
       <c r="L6" s="1">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.9</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>1.2</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
       <c r="O6" s="1">
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
         <v>5</v>
       </c>
       <c r="R6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1041,72 +1058,75 @@
         <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1">
         <v>10</v>
       </c>
       <c r="AC6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
         <v>15</v>
       </c>
       <c r="I7" s="1">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
         <v>150</v>
-      </c>
-      <c r="J7" s="1">
-        <v>100</v>
       </c>
       <c r="K7" s="1">
         <v>100</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
         <v>1.3</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
       <c r="O7" s="1">
         <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <v>5</v>
       </c>
       <c r="R7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1130,72 +1150,75 @@
         <v>0</v>
       </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <v>2</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>15</v>
       </c>
       <c r="AB7" s="1">
         <v>15</v>
       </c>
       <c r="AC7" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>20</v>
       </c>
       <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
         <v>200</v>
-      </c>
-      <c r="J8" s="1">
-        <v>100</v>
       </c>
       <c r="K8" s="1">
         <v>100</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>1.4</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1219,72 +1242,75 @@
         <v>0</v>
       </c>
       <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
         <v>3</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>20</v>
       </c>
       <c r="AB8" s="1">
         <v>20</v>
       </c>
       <c r="AC8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>25</v>
       </c>
       <c r="I9" s="1">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1">
         <v>250</v>
-      </c>
-      <c r="J9" s="1">
-        <v>100</v>
       </c>
       <c r="K9" s="1">
         <v>100</v>
       </c>
       <c r="L9" s="1">
+        <v>100</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>1.5</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
       <c r="O9" s="1">
         <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
         <v>5</v>
       </c>
       <c r="R9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -1308,72 +1334,75 @@
         <v>0</v>
       </c>
       <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
         <v>4</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>25</v>
       </c>
       <c r="AB9" s="1">
         <v>25</v>
       </c>
       <c r="AC9" s="1">
+        <v>25</v>
+      </c>
+      <c r="AD9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>30</v>
       </c>
       <c r="I10" s="1">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1">
         <v>300</v>
-      </c>
-      <c r="J10" s="1">
-        <v>100</v>
       </c>
       <c r="K10" s="1">
         <v>100</v>
       </c>
       <c r="L10" s="1">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.2</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>1.6</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
       <c r="O10" s="1">
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
         <v>5</v>
       </c>
       <c r="R10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -1397,72 +1426,75 @@
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="1">
         <v>30</v>
       </c>
       <c r="AC10" s="1">
+        <v>30</v>
+      </c>
+      <c r="AD10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>35</v>
       </c>
       <c r="I11" s="1">
+        <v>35</v>
+      </c>
+      <c r="J11" s="1">
         <v>350</v>
-      </c>
-      <c r="J11" s="1">
-        <v>100</v>
       </c>
       <c r="K11" s="1">
         <v>100</v>
       </c>
       <c r="L11" s="1">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.3</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>1.7</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
       <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
         <v>0.2</v>
       </c>
-      <c r="P11" s="1">
-        <v>5</v>
-      </c>
       <c r="Q11" s="1">
         <v>5</v>
       </c>
       <c r="R11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -1486,15 +1518,18 @@
         <v>0</v>
       </c>
       <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
         <v>6</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>35</v>
       </c>
       <c r="AB11" s="1">
         <v>35</v>
       </c>
       <c r="AC11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AD11" s="1">
         <v>6</v>
       </c>
     </row>

--- a/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,30 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -682,30 +706,31 @@
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="1"/>
-    <col min="29" max="29" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="9" max="9" width="31.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9" style="1"/>
+    <col min="30" max="30" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>73</v>
       </c>
@@ -734,70 +759,73 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -826,70 +854,73 @@
         <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -918,7 +949,7 @@
         <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
         <v>58</v>
@@ -969,10 +1000,10 @@
         <v>58</v>
       </c>
       <c r="AA3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>56</v>
@@ -980,8 +1011,11 @@
       <c r="AD3" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AE3" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1010,34 +1044,34 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
         <v>50</v>
-      </c>
-      <c r="K6" s="1">
-        <v>100</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>
       </c>
       <c r="M6" s="1">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1">
         <v>0.9</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>1.2</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
       <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>5</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6" s="1">
         <v>0</v>
@@ -1061,19 +1095,22 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="AC6" s="1">
         <v>10</v>
       </c>
       <c r="AD6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1102,34 +1139,34 @@
         <v>15</v>
       </c>
       <c r="J7" s="1">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1">
         <v>150</v>
-      </c>
-      <c r="K7" s="1">
-        <v>100</v>
       </c>
       <c r="L7" s="1">
         <v>100</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
         <v>1.3</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
       <c r="P7" s="1">
         <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>5</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -1153,19 +1190,22 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="AC7" s="1">
         <v>15</v>
       </c>
       <c r="AD7" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE7" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1194,34 +1234,34 @@
         <v>20</v>
       </c>
       <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
         <v>200</v>
-      </c>
-      <c r="K8" s="1">
-        <v>100</v>
       </c>
       <c r="L8" s="1">
         <v>100</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
         <v>1.4</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
       <c r="P8" s="1">
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>5</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1245,19 +1285,22 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="AC8" s="1">
         <v>20</v>
       </c>
       <c r="AD8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE8" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1286,34 +1329,34 @@
         <v>25</v>
       </c>
       <c r="J9" s="1">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1">
         <v>250</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
       </c>
       <c r="L9" s="1">
         <v>100</v>
       </c>
       <c r="M9" s="1">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1">
         <v>0.5</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>1.5</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>5</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
@@ -1337,19 +1380,22 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="AC9" s="1">
         <v>25</v>
       </c>
       <c r="AD9" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1378,34 +1424,34 @@
         <v>30</v>
       </c>
       <c r="J10" s="1">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1">
         <v>300</v>
-      </c>
-      <c r="K10" s="1">
-        <v>100</v>
       </c>
       <c r="L10" s="1">
         <v>100</v>
       </c>
       <c r="M10" s="1">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1">
         <v>0.2</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>1.6</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
         <v>5</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
@@ -1429,19 +1475,22 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="AC10" s="1">
         <v>30</v>
       </c>
       <c r="AD10" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE10" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1470,34 +1519,34 @@
         <v>35</v>
       </c>
       <c r="J11" s="1">
+        <v>35</v>
+      </c>
+      <c r="K11" s="1">
         <v>350</v>
-      </c>
-      <c r="K11" s="1">
-        <v>100</v>
       </c>
       <c r="L11" s="1">
         <v>100</v>
       </c>
       <c r="M11" s="1">
+        <v>100</v>
+      </c>
+      <c r="N11" s="1">
         <v>0.3</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>1.7</v>
       </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
       <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
         <v>0.2</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>5</v>
       </c>
       <c r="R11" s="1">
         <v>5</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
@@ -1521,15 +1570,18 @@
         <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="AC11" s="1">
         <v>35</v>
       </c>
       <c r="AD11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AE11" s="1">
         <v>6</v>
       </c>
     </row>

--- a/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +364,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,9 +401,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -692,42 +708,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
+    <col min="9" max="9" width="8.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1"/>
+    <col min="20" max="20" width="13.75" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" style="1" customWidth="1"/>
     <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.125" style="1" customWidth="1"/>
     <col min="26" max="26" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9" style="1"/>
-    <col min="30" max="30" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
+    <col min="29" max="29" width="17.125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
@@ -927,82 +945,82 @@
       <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="AC3" s="1" t="s">
@@ -1588,6 +1606,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华北</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小桂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巫妖王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,26 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闷骚男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楠楠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女的楠哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女汉子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>adddiscrit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,14 +309,18 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胥博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,7 +396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,7 +470,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -529,7 +504,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,14 +679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:AG27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
@@ -748,9 +722,9 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -777,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>35</v>
@@ -843,9 +817,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -872,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>38</v>
@@ -911,7 +885,7 @@
         <v>48</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>49</v>
@@ -935,10 +909,10 @@
         <v>55</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -967,7 +941,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>58</v>
@@ -1033,7 +1007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1041,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1116,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AC6" s="1">
         <v>10</v>
@@ -1128,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1136,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1211,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC7" s="1">
         <v>15</v>
@@ -1223,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1231,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -1306,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="AC8" s="1">
         <v>20</v>
@@ -1316,291 +1290,6 @@
       </c>
       <c r="AE8" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>25</v>
-      </c>
-      <c r="I9" s="1">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1">
-        <v>250</v>
-      </c>
-      <c r="L9" s="1">
-        <v>100</v>
-      </c>
-      <c r="M9" s="1">
-        <v>100</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>5</v>
-      </c>
-      <c r="S9" s="1">
-        <v>5</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>25</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>25</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1">
-        <v>30</v>
-      </c>
-      <c r="K10" s="1">
-        <v>300</v>
-      </c>
-      <c r="L10" s="1">
-        <v>100</v>
-      </c>
-      <c r="M10" s="1">
-        <v>100</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>5</v>
-      </c>
-      <c r="S10" s="1">
-        <v>5</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>30</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>35</v>
-      </c>
-      <c r="I11" s="1">
-        <v>35</v>
-      </c>
-      <c r="J11" s="1">
-        <v>35</v>
-      </c>
-      <c r="K11" s="1">
-        <v>350</v>
-      </c>
-      <c r="L11" s="1">
-        <v>100</v>
-      </c>
-      <c r="M11" s="1">
-        <v>100</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="R11" s="1">
-        <v>5</v>
-      </c>
-      <c r="S11" s="1">
-        <v>5</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>35</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>35</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1611,12 +1300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1624,12 +1313,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -169,158 +169,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crithurt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>injury_free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addhp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addattack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addrange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addattackSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addspeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addcrit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addcrithurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adddodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addinjury_free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synthChipNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveexp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小桂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫妖王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留小辫的男人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adddiscrit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>returndna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胥博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>range</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>crit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>crithurt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dodge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>injury_free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addhp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addattack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addrange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addattackSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addspeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addcrit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addcrithurt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adddodge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addinjury_free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>synthChipNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giveexp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小桂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巫妖王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>留小辫的男人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妹子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adddiscrit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>returndna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胥博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,6 +470,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -504,6 +505,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,14 +681,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:AG27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
@@ -722,9 +724,9 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -751,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>35</v>
@@ -817,9 +819,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -846,168 +848,168 @@
         <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>65</v>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1015,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1030,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -1039,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="1">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1">
         <v>100</v>
@@ -1090,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC6" s="1">
         <v>10</v>
@@ -1102,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1110,10 +1112,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -1125,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
         <v>15</v>
@@ -1134,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="K7" s="1">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="L7" s="1">
         <v>100</v>
@@ -1185,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC7" s="1">
         <v>15</v>
@@ -1197,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1205,10 +1207,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -1220,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I8" s="1">
         <v>20</v>
@@ -1229,7 +1231,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="1">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1">
         <v>100</v>
@@ -1280,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AC8" s="1">
         <v>20</v>
@@ -1300,12 +1302,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1313,12 +1315,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,12 @@
   <si>
     <t>range</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor/Actor1/ch_pc_hou</t>
+  </si>
+  <si>
+    <t>Actor/Actor2</t>
   </si>
 </sst>
 </file>
@@ -685,7 +691,7 @@
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -695,7 +701,7 @@
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.25" style="1" customWidth="1"/>
@@ -1025,8 +1031,8 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1120,8 +1126,8 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1215,8 +1221,8 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
+      <c r="F8" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1231,7 +1237,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L8" s="1">
         <v>100</v>

--- a/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Actor.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -325,8 +325,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -476,7 +476,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -511,7 +510,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -687,14 +685,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
@@ -730,7 +728,7 @@
     <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -825,7 +823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -920,7 +918,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -1015,7 +1013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
@@ -1110,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="1">
         <v>15</v>
@@ -1205,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1228,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="I8" s="1">
         <v>20</v>
@@ -1308,12 +1306,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1321,12 +1319,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
